--- a/transformacion/staging/depurado/fact_proyectos_poai_2024_depurado.xlsx
+++ b/transformacion/staging/depurado/fact_proyectos_poai_2024_depurado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Vigencia</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
   </si>
   <si>
     <t>Nombre_Proyecto</t>
@@ -625,13 +631,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,8 +668,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -677,25 +689,31 @@
         <v>2320000000</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -709,25 +727,31 @@
         <v>8823360000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2024</v>
       </c>
@@ -741,25 +765,31 @@
         <v>768928351</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -773,25 +803,31 @@
         <v>598910000</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -805,25 +841,31 @@
         <v>739629408</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -837,25 +879,31 @@
         <v>3053783278</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -869,25 +917,31 @@
         <v>452000000</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -901,25 +955,31 @@
         <v>3949756074</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2024</v>
       </c>
@@ -933,25 +993,31 @@
         <v>513400000</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -965,25 +1031,31 @@
         <v>23100000</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>47</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -997,25 +1069,31 @@
         <v>451488800</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>48</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -1029,25 +1107,31 @@
         <v>93000000</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>49</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -1061,25 +1145,31 @@
         <v>256721600</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2024</v>
       </c>
@@ -1093,25 +1183,31 @@
         <v>36000000</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>51</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -1125,25 +1221,31 @@
         <v>2394802959</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>2024</v>
       </c>
@@ -1157,25 +1259,31 @@
         <v>303200000</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>53</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>2024</v>
       </c>
@@ -1189,25 +1297,31 @@
         <v>677360000</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>54</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>2024</v>
       </c>
@@ -1221,25 +1335,31 @@
         <v>1263634193</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>2024</v>
       </c>
@@ -1253,25 +1373,31 @@
         <v>481206000</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>2024</v>
       </c>
@@ -1285,25 +1411,31 @@
         <v>12000000</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>57</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>2024</v>
       </c>
@@ -1317,25 +1449,31 @@
         <v>2056643992</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>58</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>2024</v>
       </c>
@@ -1349,25 +1487,31 @@
         <v>632093107</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>59</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>2024</v>
       </c>
@@ -1381,25 +1525,31 @@
         <v>54000000</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
-        <v>33</v>
-      </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>2024</v>
       </c>
@@ -1413,22 +1563,28 @@
         <v>452752053</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
